--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_27_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_27_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994941602106953</v>
+        <v>0.9995838565429702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988561735159467</v>
+        <v>0.9995941181869819</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9995909449760315</v>
+        <v>0.9996407734221602</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999875490442151</v>
+        <v>0.99976172415013</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9997126386994227</v>
+        <v>0.9997235795433539</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004721792395154247</v>
+        <v>0.0003884516505506763</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001067711814683916</v>
+        <v>0.0003788728562999242</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003639172592940474</v>
+        <v>0.0002002220018003749</v>
       </c>
       <c r="J2" t="n">
-        <v>8.238839703878767e-05</v>
+        <v>0.0002670835536736623</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002231528281664176</v>
+        <v>0.0002336527777370186</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002352694466037889</v>
+        <v>0.002004275248193828</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02172968567456567</v>
+        <v>0.01970917681057929</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000578102616348</v>
+        <v>1.00047559252232</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02265476338038236</v>
+        <v>0.02054823727102613</v>
       </c>
       <c r="P2" t="n">
-        <v>105.3163037994549</v>
+        <v>105.7066836950167</v>
       </c>
       <c r="Q2" t="n">
-        <v>160.1657159185239</v>
+        <v>160.5560958140857</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994853485020614</v>
+        <v>0.9995763449291543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.99885151887822</v>
+        <v>0.9995940548648884</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9995887844711729</v>
+        <v>0.9996338868575638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998776040389709</v>
+        <v>0.9997615849783862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9997123016181017</v>
+        <v>0.9997212168006087</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004804045827358352</v>
+        <v>0.0003954634123261963</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00107205671468682</v>
+        <v>0.0003789319646947035</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003658393601380197</v>
+        <v>0.0002040603640877631</v>
       </c>
       <c r="J3" t="n">
-        <v>8.09898228490748e-05</v>
+        <v>0.000267239551370968</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002234145914935473</v>
+        <v>0.0002356499577293656</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002370130504482188</v>
+        <v>0.002021143606329223</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02191813365083431</v>
+        <v>0.01988626189926594</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000588173140501</v>
+        <v>1.000484177223824</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02285123397714184</v>
+        <v>0.02073286123855484</v>
       </c>
       <c r="P3" t="n">
-        <v>105.2817638567743</v>
+        <v>105.670904569914</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.1311759758433</v>
+        <v>160.520316688983</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994763927924162</v>
+        <v>0.9995686766117445</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9988467523221224</v>
+        <v>0.9995939031761431</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9995867971805197</v>
+        <v>0.9996268266771071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999879765415301</v>
+        <v>0.9997614170155279</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997120841134292</v>
+        <v>0.9997187797785414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004887643445793759</v>
+        <v>0.0004026214500278981</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001076506085576235</v>
+        <v>0.000379073559480097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000367607360347255</v>
+        <v>0.0002079954945911922</v>
       </c>
       <c r="J4" t="n">
-        <v>7.955963279532267e-05</v>
+        <v>0.000267427821047016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002235834965712888</v>
+        <v>0.0002377099245723619</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002387609502831158</v>
+        <v>0.002038300182626076</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02210801539214626</v>
+        <v>0.02006542922610673</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000598408237239</v>
+        <v>1.000492941015149</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02304919937729083</v>
+        <v>0.02091965608942674</v>
       </c>
       <c r="P4" t="n">
-        <v>105.2472601951447</v>
+        <v>105.63502753484</v>
       </c>
       <c r="Q4" t="n">
-        <v>160.0966723142138</v>
+        <v>160.4844396539091</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994672182289567</v>
+        <v>0.9995608445780259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9988417565861368</v>
+        <v>0.9995936603749616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9995846450430481</v>
+        <v>0.9996195880868183</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998818151454497</v>
+        <v>0.9997612245426093</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9997117246147869</v>
+        <v>0.9997162665464614</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004973283968520671</v>
+        <v>0.0004099323097176904</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001081169385831358</v>
+        <v>0.0003793002037252953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003695220171156578</v>
+        <v>0.0002120300653252277</v>
       </c>
       <c r="J5" t="n">
-        <v>7.820331939872651e-05</v>
+        <v>0.0002676435640655159</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002238626682571922</v>
+        <v>0.000239834310240947</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002405414051983339</v>
+        <v>0.002055642049370782</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02230086089934797</v>
+        <v>0.0202467851699397</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000608893452621</v>
+        <v>1.000501891910828</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02325025471697936</v>
+        <v>0.02110873273124724</v>
       </c>
       <c r="P5" t="n">
-        <v>105.2125199836372</v>
+        <v>105.5990370202913</v>
       </c>
       <c r="Q5" t="n">
-        <v>160.0619321027062</v>
+        <v>160.4484491393604</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994578933068917</v>
+        <v>0.9995528457868786</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988366745925681</v>
+        <v>0.9995933247341029</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9995827681513823</v>
+        <v>0.9996121802779625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998839548961553</v>
+        <v>0.9997610048497981</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9997115611350947</v>
+        <v>0.9997136756008635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0005060328022828994</v>
+        <v>0.0004173988301472933</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001085913203753969</v>
+        <v>0.0003796135097339045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003711918004724632</v>
+        <v>0.0002161589533573804</v>
       </c>
       <c r="J6" t="n">
-        <v>7.67874390940819e-05</v>
+        <v>0.0002678898178791822</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002239896197832725</v>
+        <v>0.0002420243856182814</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002423234711403766</v>
+        <v>0.002073158399979151</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02249517286625954</v>
+        <v>0.02043034092097568</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000619550506409</v>
+        <v>1.000511033386424</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02345283894660357</v>
+        <v>0.0213001028306176</v>
       </c>
       <c r="P6" t="n">
-        <v>105.1778181282638</v>
+        <v>105.5629367320776</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.0272302473329</v>
+        <v>160.4123488511467</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994483151370301</v>
+        <v>0.9995446780349072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988313192585573</v>
+        <v>0.9995928862753477</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9995805557651879</v>
+        <v>0.9996045986079168</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998859215664301</v>
+        <v>0.9997607571110474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997111317373353</v>
+        <v>0.9997110117015059</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005149736034156707</v>
+        <v>0.0004250230680897286</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001090912172981133</v>
+        <v>0.0003800227917357054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003731600577316651</v>
+        <v>0.0002203847463447943</v>
       </c>
       <c r="J7" t="n">
-        <v>7.548608669801949e-05</v>
+        <v>0.0002681675084044822</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002243230722148423</v>
+        <v>0.0002442761273746383</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002441570177728698</v>
+        <v>0.002090846477062617</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02269302984212709</v>
+        <v>0.02061608760385269</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000630496986251</v>
+        <v>1.000520367960106</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02365911910355421</v>
+        <v>0.02149375713433333</v>
       </c>
       <c r="P7" t="n">
-        <v>105.1427898282354</v>
+        <v>105.5267342253093</v>
       </c>
       <c r="Q7" t="n">
-        <v>159.9922019473044</v>
+        <v>160.3761463443784</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994386294443132</v>
+        <v>0.999536339778013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9988258772879598</v>
+        <v>0.9995923523290996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9995786800057791</v>
+        <v>0.9995968216969954</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998879559348318</v>
+        <v>0.9997604758543271</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997109289139943</v>
+        <v>0.99970826299991</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0005240147724141957</v>
+        <v>0.0004328064648933175</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001095992013659004</v>
+        <v>0.0003805212071207969</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003748288337719149</v>
+        <v>0.000224719360676143</v>
       </c>
       <c r="J8" t="n">
-        <v>7.413993822150442e-05</v>
+        <v>0.0002684827692434183</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002244805763814541</v>
+        <v>0.0002465995507957179</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002461099590643831</v>
+        <v>0.002108705422947294</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02289136895020033</v>
+        <v>0.02080400117509412</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000641566349356</v>
+        <v>1.000529897396557</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02386590191807668</v>
+        <v>0.02168967057533722</v>
       </c>
       <c r="P8" t="n">
-        <v>105.1079813648209</v>
+        <v>105.4904397863491</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.9573934838899</v>
+        <v>160.3398519054181</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994286406652889</v>
+        <v>0.9995278186590743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988201490441275</v>
+        <v>0.9995917175393784</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9995764694141785</v>
+        <v>0.9995888750912026</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998898301323577</v>
+        <v>0.9997601487523748</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997104562405478</v>
+        <v>0.9997054286859716</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0005333388591765816</v>
+        <v>0.0004407605553887817</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001101339077835498</v>
+        <v>0.0003811137554615624</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003767954944643358</v>
+        <v>0.0002291485577832112</v>
       </c>
       <c r="J9" t="n">
-        <v>7.289977535726785e-05</v>
+        <v>0.0002688494180325388</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002248476349108018</v>
+        <v>0.0002489953406469773</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002481136573438027</v>
+        <v>0.002126765532500465</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0230941304052909</v>
+        <v>0.02099429816375822</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000652982096813</v>
+        <v>1.000539635818201</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02407729534808453</v>
+        <v>0.02188806890077783</v>
       </c>
       <c r="P9" t="n">
-        <v>105.0727071550042</v>
+        <v>105.4540175765495</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.9221192740732</v>
+        <v>160.3034296956185</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999418433377342</v>
+        <v>0.9995191183811454</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9988142314901299</v>
+        <v>0.9995909758312796</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9995742640056803</v>
+        <v>0.9995807252441917</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998916585931938</v>
+        <v>0.9997598020532852</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997099768575292</v>
+        <v>0.9997025061611312</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0005428669144267852</v>
+        <v>0.0004488818829373131</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001106862854741717</v>
+        <v>0.0003818061074145097</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003787575439914152</v>
+        <v>0.0002336910353824683</v>
       </c>
       <c r="J10" t="n">
-        <v>7.168987661580005e-05</v>
+        <v>0.0002692380332655583</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002252199038147401</v>
+        <v>0.0002514656934393292</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002501408314252703</v>
+        <v>0.002145013490256477</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02329950459616653</v>
+        <v>0.02118683277267542</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000664647568752</v>
+        <v>1.000549578992977</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02429141274344892</v>
+        <v>0.02208880010659822</v>
       </c>
       <c r="P10" t="n">
-        <v>105.0372927224145</v>
+        <v>105.4175015435699</v>
       </c>
       <c r="Q10" t="n">
-        <v>159.8867048414835</v>
+        <v>160.266913662639</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994080673640032</v>
+        <v>0.9995102370968116</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9988081695460629</v>
+        <v>0.9995901274390561</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9995723557992962</v>
+        <v>0.9995723783920089</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998935205668309</v>
+        <v>0.9997594059807151</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997096743388705</v>
+        <v>0.9996994951196941</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005525431328631829</v>
+        <v>0.0004571721720195015</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001112521413439656</v>
+        <v>0.0003825980443150861</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003804551865988347</v>
+        <v>0.0002383433176908482</v>
       </c>
       <c r="J11" t="n">
-        <v>7.045780234028742e-05</v>
+        <v>0.0002696819912646085</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002254548272164044</v>
+        <v>0.0002540108675707988</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00252172604685588</v>
+        <v>0.002163437777506101</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02350623604202048</v>
+        <v>0.02138158488090865</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000676494441139</v>
+        <v>1.000559729032215</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02450694517494597</v>
+        <v>0.02229184321527138</v>
       </c>
       <c r="P11" t="n">
-        <v>105.0019581181778</v>
+        <v>105.3809009879902</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.8513702372468</v>
+        <v>160.2303131070593</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9993974635412649</v>
+        <v>0.99950116067294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988018782935514</v>
+        <v>0.9995891671526469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9995703233828503</v>
+        <v>0.9995638394949549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998952998948595</v>
+        <v>0.9997589809570457</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9997092659761105</v>
+        <v>0.9996963949733561</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005624413359354246</v>
+        <v>0.0004656446152946839</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001118394021505112</v>
+        <v>0.0003834944295263256</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003822633331301627</v>
+        <v>0.0002431026399870963</v>
       </c>
       <c r="J12" t="n">
-        <v>6.928041494432098e-05</v>
+        <v>0.0002701584005695465</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002257719447427409</v>
+        <v>0.000256631360323286</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002542323727896542</v>
+        <v>0.002182062863740968</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02371584567194315</v>
+        <v>0.02157880013565824</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000688613095697</v>
+        <v>1.000570102088069</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02472547832076619</v>
+        <v>0.02249745433170752</v>
       </c>
       <c r="P12" t="n">
-        <v>104.9664474419896</v>
+        <v>105.3441756858208</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.8158595610587</v>
+        <v>160.1935878048898</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999386612637129</v>
+        <v>0.9994918907437889</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9987953357615633</v>
+        <v>0.9995880925900972</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9995682218691836</v>
+        <v>0.9995551006134514</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998969582499119</v>
+        <v>0.99975850676127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997087688291963</v>
+        <v>0.9996932003918866</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0005725701786466383</v>
+        <v>0.0004742976872544574</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001124501187931951</v>
+        <v>0.0003844974864986205</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003841329522502612</v>
+        <v>0.0002479734275513847</v>
       </c>
       <c r="J13" t="n">
-        <v>6.818307577742005e-05</v>
+        <v>0.0002706899269201667</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002261580083487178</v>
+        <v>0.0002593316772357757</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002563712022440202</v>
+        <v>0.002200877924827736</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02392843870056378</v>
+        <v>0.02177837659823288</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000701014128995</v>
+        <v>1.000580696292813</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02494712187474344</v>
+        <v>0.02270552717747419</v>
       </c>
       <c r="P13" t="n">
-        <v>104.9307504945193</v>
+        <v>105.3073508024329</v>
       </c>
       <c r="Q13" t="n">
-        <v>159.7801626135883</v>
+        <v>160.156762921502</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9993755224976754</v>
+        <v>0.9994824233458482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9987885586681736</v>
+        <v>0.9995869019077799</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999566004494826</v>
+        <v>0.9995461297251713</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998985515559491</v>
+        <v>0.9997579863865372</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997081761120457</v>
+        <v>0.9996898964446385</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0005829223370257813</v>
+        <v>0.0004831350876612548</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001130827307131266</v>
+        <v>0.000385608936176955</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003861056472466924</v>
+        <v>0.0002529735286580024</v>
       </c>
       <c r="J14" t="n">
-        <v>6.712877976454994e-05</v>
+        <v>0.0002712732152934547</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002266182878234519</v>
+        <v>0.0002621244388909209</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002585892831083359</v>
+        <v>0.002219903255026022</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02414378464586241</v>
+        <v>0.0219803341116839</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000713688574085</v>
+        <v>1.000591516176173</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02517163554276099</v>
+        <v>0.02291608244038251</v>
       </c>
       <c r="P14" t="n">
-        <v>104.8949131862722</v>
+        <v>105.2704285176346</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.7443253053413</v>
+        <v>160.1198406367036</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9993642524301077</v>
+        <v>0.9994727480240297</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9987816473632265</v>
+        <v>0.9995855892819939</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9995641101197437</v>
+        <v>0.9995369489270511</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999900147786777</v>
+        <v>0.9997574233968622</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9997077724350277</v>
+        <v>0.9996864975603454</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0005934424504013123</v>
+        <v>0.0004921665758813311</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00113727870692817</v>
+        <v>0.0003868342147305102</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003877909847872195</v>
+        <v>0.0002580906271443972</v>
       </c>
       <c r="J15" t="n">
-        <v>6.607254840776203e-05</v>
+        <v>0.0002719042707830118</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002269317665974908</v>
+        <v>0.0002649974489637045</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002608161931284625</v>
+        <v>0.002239130889962708</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02436067425998945</v>
+        <v>0.0221848276054003</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000726568651305</v>
+        <v>1.000602573686823</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02539775859678481</v>
+        <v>0.0231292816454863</v>
       </c>
       <c r="P15" t="n">
-        <v>104.859140630168</v>
+        <v>105.233386659818</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.708552749237</v>
+        <v>160.082798778887</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9993526722062125</v>
+        <v>0.9994628755225146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9987744397835897</v>
+        <v>0.9995841501630608</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9995619074328621</v>
+        <v>0.999527553607382</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999901587864496</v>
+        <v>0.999756813988981</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997071242391335</v>
+        <v>0.999682996006396</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0006042520810944865</v>
+        <v>0.0005013821226930369</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001144006666142988</v>
+        <v>0.0003881775690845993</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003897506130181973</v>
+        <v>0.0002633272934373696</v>
       </c>
       <c r="J16" t="n">
-        <v>6.511964409323655e-05</v>
+        <v>0.0002725873564698547</v>
       </c>
       <c r="K16" t="n">
-        <v>0.000227435128555717</v>
+        <v>0.0002679572436787218</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002630895851970042</v>
+        <v>0.002258548142221634</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02458153943703458</v>
+        <v>0.02239156365002313</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0007398031929</v>
+        <v>1.000613856545698</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02562802646167071</v>
+        <v>0.02334481887153133</v>
       </c>
       <c r="P16" t="n">
-        <v>104.823038188583</v>
+        <v>105.1962840553125</v>
       </c>
       <c r="Q16" t="n">
-        <v>159.672450307652</v>
+        <v>160.0456961743816</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9993408241419683</v>
+        <v>0.9994527849921609</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9987669832170047</v>
+        <v>0.9995825838624919</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9995596437561954</v>
+        <v>0.9995179422405887</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999029425115181</v>
+        <v>0.9997561559308673</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997064047095423</v>
+        <v>0.9996793907736526</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0006153117289964648</v>
+        <v>0.0005108011898550112</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001150967043744522</v>
+        <v>0.0003896396419130386</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000391764501028855</v>
+        <v>0.0002686843778462711</v>
       </c>
       <c r="J17" t="n">
-        <v>6.422326956078057e-05</v>
+        <v>0.00027332497423351</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002279938852948178</v>
+        <v>0.0002710046760398906</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002653941257550399</v>
+        <v>0.002278190740717597</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02480547780222072</v>
+        <v>0.02260091126160649</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00075334383775</v>
+        <v>1.000625388580388</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02586149834667914</v>
+        <v>0.0235630788443491</v>
       </c>
       <c r="P17" t="n">
-        <v>104.7867630843184</v>
+        <v>105.159060208827</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.6361752033874</v>
+        <v>160.0084723278961</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9993287151422453</v>
+        <v>0.999442482284396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9987593060580625</v>
+        <v>0.999580891594699</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9995573740062177</v>
+        <v>0.9995080762848465</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999042316326632</v>
+        <v>0.9997554473823144</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997056537838326</v>
+        <v>0.9996756698849169</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0006266149487142672</v>
+        <v>0.0005204183153169799</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001158133334628791</v>
+        <v>0.0003912192996157367</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0003937837921823985</v>
+        <v>0.0002741833624154015</v>
       </c>
       <c r="J18" t="n">
-        <v>6.337025372353144e-05</v>
+        <v>0.0002741191867631131</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000228577022952965</v>
+        <v>0.0002741498701377456</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002677272955492877</v>
+        <v>0.002298040798150747</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02503227813672314</v>
+        <v>0.02281267882816439</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000767182694577</v>
+        <v>1.000637163103547</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02609795404096274</v>
+        <v>0.02378386179463467</v>
       </c>
       <c r="P18" t="n">
-        <v>104.750356645723</v>
+        <v>105.1217552345093</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.5997687647921</v>
+        <v>159.9711673535784</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9993162998017449</v>
+        <v>0.999431954603709</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9987513144811981</v>
+        <v>0.9995790628921094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9995549081615013</v>
+        <v>0.999498004524545</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999053759239881</v>
+        <v>0.9997546774190319</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997047288269292</v>
+        <v>0.999671837221096</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0006382041241009936</v>
+        <v>0.0005302454431264976</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001165593120842065</v>
+        <v>0.0003929263132123575</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003959775397186337</v>
+        <v>0.0002797970562053858</v>
       </c>
       <c r="J19" t="n">
-        <v>6.261307226995282e-05</v>
+        <v>0.0002749822391025801</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002292953059942932</v>
+        <v>0.0002773895455175579</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002701040503433999</v>
+        <v>0.002318100363983538</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02526270223275795</v>
+        <v>0.02302705893349165</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000781371655149</v>
+        <v>1.000649194738618</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02633818776780939</v>
+        <v>0.0240073685048737</v>
       </c>
       <c r="P19" t="n">
-        <v>104.7137047641172</v>
+        <v>105.0843411167545</v>
       </c>
       <c r="Q19" t="n">
-        <v>159.5631168831862</v>
+        <v>159.9337532358235</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9993036718938054</v>
+        <v>0.9994212110133184</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9987431553528743</v>
+        <v>0.999577098389495</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9995528223604192</v>
+        <v>0.9994877001558821</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999065327097477</v>
+        <v>0.9997538723778076</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997040268891757</v>
+        <v>0.9996679040998068</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0006499917218613897</v>
+        <v>0.0005402741131670105</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001173209308987976</v>
+        <v>0.0003947600901710945</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003978331800817962</v>
+        <v>0.000285540398842725</v>
       </c>
       <c r="J20" t="n">
-        <v>6.184762320638653e-05</v>
+        <v>0.0002758846103297958</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002298404016440913</v>
+        <v>0.0002807141356203924</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002724921847816982</v>
+        <v>0.002338344370730662</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02549493521979198</v>
+        <v>0.02324379730523846</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000795803549937</v>
+        <v>1.000661473127636</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02658030739389002</v>
+        <v>0.02423333387781605</v>
       </c>
       <c r="P20" t="n">
-        <v>104.6771018615071</v>
+        <v>105.0468678604478</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.5265139805761</v>
+        <v>159.8962799795169</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9992907582244186</v>
+        <v>0.9994102332949799</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9987347279133905</v>
+        <v>0.9995749884619669</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9995506172414723</v>
+        <v>0.9994771234247979</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999075658366438</v>
+        <v>0.999753000234513</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997032047773978</v>
+        <v>0.9996638424477057</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0006620460653893626</v>
+        <v>0.0005505213313698772</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001181075953824328</v>
+        <v>0.0003967296149035149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0003997949720084157</v>
+        <v>0.0002914355480349928</v>
       </c>
       <c r="J21" t="n">
-        <v>6.116399963270632e-05</v>
+        <v>0.0002768621963107291</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002304788194405725</v>
+        <v>0.0002841473702917292</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00274916892857444</v>
+        <v>0.002358837952926346</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02573025583606511</v>
+        <v>0.02346319098865023</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000810562029236</v>
+        <v>1.000674019091452</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02682564609597872</v>
+        <v>0.02446206760453819</v>
       </c>
       <c r="P21" t="n">
-        <v>104.6403508385358</v>
+        <v>105.0092897069397</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.4897629576048</v>
+        <v>159.8587018260087</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9992775650844088</v>
+        <v>0.9993990263002465</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9987260517486863</v>
+        <v>0.9995727432018006</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9995483945971795</v>
+        <v>0.999466322615389</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999085402076036</v>
+        <v>0.9997520770178994</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997023458776528</v>
+        <v>0.9996596675715277</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0006743612824766178</v>
+        <v>0.0005609825690232798</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001189174772735989</v>
+        <v>0.0003988254667132622</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004017723554215228</v>
+        <v>0.0002974555916907561</v>
       </c>
       <c r="J22" t="n">
-        <v>6.051925506138912e-05</v>
+        <v>0.0002778970304079045</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000231145805241456</v>
+        <v>0.0002876763110493303</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002773680018221529</v>
+        <v>0.00237952543038266</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02596846707983777</v>
+        <v>0.02368507059358869</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000825639903533</v>
+        <v>1.000686827085433</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02707399848556404</v>
+        <v>0.02469339308361299</v>
       </c>
       <c r="P22" t="n">
-        <v>104.6034891264999</v>
+        <v>104.9716414483681</v>
       </c>
       <c r="Q22" t="n">
-        <v>159.452901245569</v>
+        <v>159.8210535674371</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9992640402761217</v>
+        <v>0.9993875740854048</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9987170672972266</v>
+        <v>0.9995703464626458</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9995459341423315</v>
+        <v>0.9994552466462167</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999093770912483</v>
+        <v>0.9997510808065021</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997012930375194</v>
+        <v>0.9996553553552063</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0006869860973421482</v>
+        <v>0.0005716727088839041</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001197561363801754</v>
+        <v>0.0004010627175095612</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004039613078421704</v>
+        <v>0.0003036290010550927</v>
       </c>
       <c r="J23" t="n">
-        <v>5.996548631307614e-05</v>
+        <v>0.0002790136844051424</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002319633970776233</v>
+        <v>0.0002913213427301175</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002798646729868925</v>
+        <v>0.002400461815171459</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02621041963308005</v>
+        <v>0.02390967814262468</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000841096827289</v>
+        <v>1.000699915330966</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02732625145990868</v>
+        <v>0.02492756264101316</v>
       </c>
       <c r="P23" t="n">
-        <v>104.5663930054242</v>
+        <v>104.933887835224</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.4158051244933</v>
+        <v>159.783299954293</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9992501704029194</v>
+        <v>0.9993758791517106</v>
       </c>
       <c r="C24" t="n">
-        <v>0.998707754654288</v>
+        <v>0.9995678030767614</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9995432321124333</v>
+        <v>0.9994439271850865</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999101191313242</v>
+        <v>0.9997500131206445</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997000622592036</v>
+        <v>0.9996509154707066</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006999330151594086</v>
+        <v>0.0005825894161392397</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00120625430720729</v>
+        <v>0.0004034368565908681</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004063651783668109</v>
+        <v>0.0003099381254535006</v>
       </c>
       <c r="J24" t="n">
-        <v>5.947447587622789e-05</v>
+        <v>0.0002802104541709105</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002329191683017056</v>
+        <v>0.0002950742898122056</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002824031138722685</v>
+        <v>0.002421631866595439</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02645624718586157</v>
+        <v>0.02413688911478113</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000856948110949</v>
+        <v>1.000713280969474</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0275825444005453</v>
+        <v>0.02516444645464587</v>
       </c>
       <c r="P24" t="n">
-        <v>104.5290518402582</v>
+        <v>104.8960557604065</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3784639593273</v>
+        <v>159.7454678794756</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9992359951749292</v>
+        <v>0.9993639302095196</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9986981510694766</v>
+        <v>0.9995650974868693</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9995404792489118</v>
+        <v>0.999432334871208</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999107843100107</v>
+        <v>0.9997488770842414</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996987679189991</v>
+        <v>0.9996463403091823</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0007131649682676126</v>
+        <v>0.0005937432291764805</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001215218832080069</v>
+        <v>0.0004059624059934909</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004088142732055572</v>
+        <v>0.0003163993297000966</v>
       </c>
       <c r="J25" t="n">
-        <v>5.903432488162172e-05</v>
+        <v>0.0002814838381072532</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002339242990435895</v>
+        <v>0.0002989415839036749</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002849741706686039</v>
+        <v>0.002443031181239816</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02670514872206505</v>
+        <v>0.02436684692725919</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000873148371509</v>
+        <v>1.000726936903406</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02784204219044217</v>
+        <v>0.02540419404727941</v>
       </c>
       <c r="P25" t="n">
-        <v>104.491595584536</v>
+        <v>104.8581272123454</v>
       </c>
       <c r="Q25" t="n">
-        <v>159.3410077036051</v>
+        <v>159.7075393314144</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9992215333291242</v>
+        <v>0.9993517235345044</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9986882826482358</v>
+        <v>0.9995622326998842</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9995378094899926</v>
+        <v>0.9994204711789885</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999113768774502</v>
+        <v>0.9997476764362936</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996974926755668</v>
+        <v>0.9996416305734362</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0007266644665249783</v>
+        <v>0.0006051376244920976</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001224430570134666</v>
+        <v>0.0004086365588944428</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0004111894337387459</v>
+        <v>0.0003230117920051702</v>
       </c>
       <c r="J26" t="n">
-        <v>5.864222099559735e-05</v>
+        <v>0.0002828296451656975</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002349146000268573</v>
+        <v>0.000302922630939111</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002875727588335555</v>
+        <v>0.002464668854601481</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02695671468345092</v>
+        <v>0.02459954520905006</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000889676195287</v>
+        <v>1.000740887389138</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02810431783561756</v>
+        <v>0.02564679877667797</v>
       </c>
       <c r="P26" t="n">
-        <v>104.4540914371435</v>
+        <v>104.8201092946068</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.3035035562125</v>
+        <v>159.6695214136759</v>
       </c>
     </row>
   </sheetData>
